--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altis\Desktop\ProjetoIptvManterLinkUsuarioAtualizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93458B6-B69B-4C71-974B-E53F9BD1870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7593400-47A2-4935-A128-632FC7D0F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
+    <workbookView xWindow="3672" yWindow="2232" windowWidth="17280" windowHeight="8928" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Servidor</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Cliente IPTV 211</t>
+  </si>
+  <si>
+    <t>53:db:91:9d:c8:a1</t>
+  </si>
+  <si>
+    <t>Cliente Iptv 104</t>
+  </si>
+  <si>
+    <t>24:CE:33:E1:BC:87</t>
+  </si>
+  <si>
+    <t>Cliente IPTV 86</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,6 +534,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>361018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>892344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L12" s="1"/>
     </row>

--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7593400-47A2-4935-A128-632FC7D0F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80F5AB-BB6C-4492-B93B-91A30BF86683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="2232" windowWidth="17280" windowHeight="8928" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Servidor</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Cliente IPTV 86</t>
+  </si>
+  <si>
+    <t>Cliente IPTV 209 Uniplay</t>
+  </si>
+  <si>
+    <t>d4:9d:c0:c7:7c:9e</t>
+  </si>
+  <si>
+    <t>UNIPLAY</t>
+  </si>
+  <si>
+    <t>34:f1:00:cd:6a:ca</t>
+  </si>
+  <si>
+    <t>Heloiza TVS Cliente IPTV Tia Vinícius</t>
+  </si>
+  <si>
+    <t>e9:f5:d8:02:59:4a</t>
+  </si>
+  <si>
+    <t>Site ativação</t>
+  </si>
+  <si>
+    <t>iboplayer.com</t>
+  </si>
+  <si>
+    <t>iboplayer.pro</t>
+  </si>
+  <si>
+    <t>Cliente IPTV 215</t>
   </si>
 </sst>
 </file>
@@ -107,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,9 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,15 +504,16 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -491,6 +529,9 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -505,6 +546,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -519,6 +563,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -533,6 +580,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -547,6 +597,10 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -560,6 +614,60 @@
       </c>
       <c r="D6" t="s">
         <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>333720</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>183507</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>701063</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80F5AB-BB6C-4492-B93B-91A30BF86683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3DB42-518B-498D-9750-AF45BE08E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Servidor</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>Cliente IPTV 215</t>
+  </si>
+  <si>
+    <t>Matheus bl01 ap402 Gran Sonata Cliente Iptv</t>
+  </si>
+  <si>
+    <t>48:B4:23:34:64:72</t>
+  </si>
+  <si>
+    <t>Waldo</t>
+  </si>
+  <si>
+    <t>08:C3:B3:B0:4C:6A</t>
+  </si>
+  <si>
+    <t>84:2c:41:df:fd:48</t>
+  </si>
+  <si>
+    <t>mac antigo</t>
+  </si>
+  <si>
+    <t>device antigo</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,16 +525,18 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -532,22 +555,34 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>689173</v>
+        <v>690015</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>689173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -668,6 +703,40 @@
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>370538</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>897752</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3DB42-518B-498D-9750-AF45BE08E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5D093-B3C8-4721-B765-13E554602DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Servidor</t>
   </si>
@@ -128,13 +131,19 @@
     <t>08:C3:B3:B0:4C:6A</t>
   </si>
   <si>
-    <t>84:2c:41:df:fd:48</t>
-  </si>
-  <si>
     <t>mac antigo</t>
   </si>
   <si>
     <t>device antigo</t>
+  </si>
+  <si>
+    <t>68:B6:91:05:B9:E8</t>
+  </si>
+  <si>
+    <t>e0:9d:13:fa:dd:ed</t>
+  </si>
+  <si>
+    <t>Sergio Marcelo Gran Sonata</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +177,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,10 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,18 +549,18 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -556,10 +580,10 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -567,15 +591,15 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>690015</v>
+        <v>968366</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -598,7 +622,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -615,94 +639,95 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>361018</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>701063</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>892344</v>
+        <v>361018</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>333720</v>
+        <v>892344</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>333720</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>183507</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>701063</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -718,7 +743,7 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -735,14 +760,30 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>133102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5D093-B3C8-4721-B765-13E554602DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CC54A-F34B-4501-A5A4-9436EA503839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Servidor</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Sergio Marcelo Gran Sonata</t>
+  </si>
+  <si>
+    <t>cliente iptv 198</t>
+  </si>
+  <si>
+    <t>db:8b:ec:8b:36:42</t>
   </si>
 </sst>
 </file>
@@ -205,11 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -546,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +604,7 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -622,7 +627,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -639,24 +644,24 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>701063</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -673,7 +678,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1"/>
@@ -692,7 +697,7 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -709,7 +714,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -726,7 +731,7 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -743,7 +748,7 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -760,7 +765,7 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -777,10 +782,27 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>540603</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}"/>

--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CC54A-F34B-4501-A5A4-9436EA503839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A0954-1B41-4F00-B447-D0491E4A404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Servidor</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>db:8b:ec:8b:36:42</t>
+  </si>
+  <si>
+    <t>b7:ae:88:21:e0:50</t>
+  </si>
+  <si>
+    <t>058054</t>
+  </si>
+  <si>
+    <t>cliente iptv 198 (Celular)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,16 +222,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,262 +585,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>968366</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>689173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>994098</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>638873</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>701063</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>361018</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>892344</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>333720</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>183507</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>370538</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>897752</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>133102</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>540603</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
+++ b/Python/ProjetoIptvManterLinkUsuarioAtualizado/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetosLuiz\Projects\Python\ProjetoIptvManterLinkUsuarioAtualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A0954-1B41-4F00-B447-D0491E4A404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5114F791-01AD-4380-8351-855F1C25B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F01D1A6-D05C-4EE5-AEA0-5513D690E58D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Servidor</t>
   </si>
@@ -159,13 +159,25 @@
   </si>
   <si>
     <t>cliente iptv 198 (Celular)</t>
+  </si>
+  <si>
+    <t>627140</t>
+  </si>
+  <si>
+    <t>34:a6:a6:5b:d8:72</t>
+  </si>
+  <si>
+    <t>Cliente IPTV 204</t>
+  </si>
+  <si>
+    <t>data validade APP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +192,25 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -241,16 +272,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,282 +619,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6">
+        <v>361018</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="4">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6">
+        <v>701063</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>994098</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>638873</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45947</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C6" s="6">
         <v>968366</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G6" s="5">
         <v>689173</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>994098</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H6" s="2">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <v>333720</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6">
+        <v>133102</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>638873</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45951</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>892344</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>183507</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>370538</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
-        <v>701063</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>897752</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6">
+        <v>540603</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>361018</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>892344</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>333720</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>183507</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>370538</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3">
-        <v>897752</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
-        <v>133102</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3">
-        <v>540603</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
+      <c r="H15" s="4">
+        <v>46025</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}"/>
+  <autoFilter ref="A1:L1" xr:uid="{0FA639F0-A937-497D-B23F-36CDE4B11514}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
+      <sortCondition ref="H1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C14" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>